--- a/data/case1/5/P1_13.xlsx
+++ b/data/case1/5/P1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.13470087871502301</v>
+        <v>0.036339451647734222</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999991786354769</v>
+        <v>-0.0099999991695227664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999991863969342</v>
+        <v>-0.0089999991793181522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28398845068641876</v>
+        <v>0.28398587613580872</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.005999999206206752</v>
+        <v>-0.0059999992042714112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999991786945372</v>
+        <v>-0.0059999991779662309</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999050746453</v>
+        <v>-0.019999999038734728</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999041743877</v>
+        <v>-0.019999999034784111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999991563044475</v>
+        <v>-0.0059999991697798905</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999991470220948</v>
+        <v>-0.0059999991682460063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999991594600885</v>
+        <v>-0.0044999991829541841</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.006809486339921289</v>
+        <v>-0.0059999991683001852</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999991313315348</v>
+        <v>-0.0059999991702284206</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999074268963</v>
+        <v>0.046712874415856476</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999991251551421</v>
+        <v>-0.0059999991684254184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999991227139837</v>
+        <v>-0.0059999991653496565</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999991193215862</v>
+        <v>-0.0059999991608945535</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999990919400474</v>
+        <v>-0.014090005254781879</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.029203939933088119</v>
+        <v>-0.0089999991790987721</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999991611406926</v>
+        <v>-0.008999999172178974</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.070675593326267716</v>
+        <v>-0.0089999991711744443</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.008999999155810734</v>
+        <v>-0.0089999991704692306</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999991802267587</v>
+        <v>-0.0089999991728095807</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998873663458</v>
+        <v>-0.041999998835126284</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998868130106</v>
+        <v>-0.041999998829107099</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999991765344873</v>
+        <v>-0.0059999991747794468</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999991737944569</v>
+        <v>-0.0059999991704700051</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999991619150705</v>
+        <v>-0.0059999991517036833</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999100678949</v>
+        <v>-0.011999999079678858</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999025935189</v>
+        <v>-0.019999998994850277</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.01499999906661742</v>
+        <v>-0.014999999034323253</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999012844661</v>
+        <v>-0.020999998973616485</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.01244931845231978</v>
+        <v>-0.014197333089365216</v>
       </c>
     </row>
   </sheetData>
